--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gpha2-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gpha2-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tshr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2572303333333333</v>
+        <v>0.037889</v>
       </c>
       <c r="H2">
-        <v>0.771691</v>
+        <v>0.113667</v>
       </c>
       <c r="I2">
-        <v>0.5961756857606834</v>
+        <v>0.08072544740350081</v>
       </c>
       <c r="J2">
-        <v>0.5961756857606834</v>
+        <v>0.08072544740350082</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.8749903333333334</v>
+        <v>0.051093</v>
       </c>
       <c r="N2">
-        <v>2.624971</v>
+        <v>0.153279</v>
       </c>
       <c r="O2">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="P2">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="Q2">
-        <v>0.2250740551067778</v>
+        <v>0.001935862677</v>
       </c>
       <c r="R2">
-        <v>2.025666495961</v>
+        <v>0.017422764093</v>
       </c>
       <c r="S2">
-        <v>0.159209726407544</v>
+        <v>0.00117098717518822</v>
       </c>
       <c r="T2">
-        <v>0.159209726407544</v>
+        <v>0.001170987175188221</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2572303333333333</v>
+        <v>0.037889</v>
       </c>
       <c r="H3">
-        <v>0.771691</v>
+        <v>0.113667</v>
       </c>
       <c r="I3">
-        <v>0.5961756857606834</v>
+        <v>0.08072544740350081</v>
       </c>
       <c r="J3">
-        <v>0.5961756857606834</v>
+        <v>0.08072544740350082</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.444111</v>
       </c>
       <c r="O3">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="P3">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="Q3">
-        <v>0.2095664957445555</v>
+        <v>0.03086830722633333</v>
       </c>
       <c r="R3">
-        <v>1.886098461701</v>
+        <v>0.277814765037</v>
       </c>
       <c r="S3">
-        <v>0.1482402066993002</v>
+        <v>0.01867198139168742</v>
       </c>
       <c r="T3">
-        <v>0.1482402066993002</v>
+        <v>0.01867198139168743</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2572303333333333</v>
+        <v>0.037889</v>
       </c>
       <c r="H4">
-        <v>0.771691</v>
+        <v>0.113667</v>
       </c>
       <c r="I4">
-        <v>0.5961756857606834</v>
+        <v>0.08072544740350081</v>
       </c>
       <c r="J4">
-        <v>0.5961756857606834</v>
+        <v>0.08072544740350082</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.586789</v>
+        <v>2.656449666666667</v>
       </c>
       <c r="N4">
-        <v>4.760367</v>
+        <v>7.969348999999999</v>
       </c>
       <c r="O4">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812916</v>
       </c>
       <c r="P4">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812917</v>
       </c>
       <c r="Q4">
-        <v>0.4081702633996667</v>
+        <v>0.1006502214203333</v>
       </c>
       <c r="R4">
-        <v>3.673532370597</v>
+        <v>0.905851992783</v>
       </c>
       <c r="S4">
-        <v>0.2887257526538392</v>
+        <v>0.06088247883662516</v>
       </c>
       <c r="T4">
-        <v>0.2887257526538392</v>
+        <v>0.06088247883662518</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,46 +720,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.174237</v>
+        <v>0.2572303333333333</v>
       </c>
       <c r="H5">
-        <v>0.5227109999999999</v>
+        <v>0.771691</v>
       </c>
       <c r="I5">
-        <v>0.4038243142393166</v>
+        <v>0.5480491367965632</v>
       </c>
       <c r="J5">
-        <v>0.4038243142393167</v>
+        <v>0.5480491367965632</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.8749903333333334</v>
+        <v>0.051093</v>
       </c>
       <c r="N5">
-        <v>2.624971</v>
+        <v>0.153279</v>
       </c>
       <c r="O5">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="P5">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="Q5">
-        <v>0.152455690709</v>
+        <v>0.013142669421</v>
       </c>
       <c r="R5">
-        <v>1.372101216381</v>
+        <v>0.118284024789</v>
       </c>
       <c r="S5">
-        <v>0.1078419669274538</v>
+        <v>0.007949891034409046</v>
       </c>
       <c r="T5">
-        <v>0.1078419669274538</v>
+        <v>0.007949891034409047</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.174237</v>
+        <v>0.2572303333333333</v>
       </c>
       <c r="H6">
-        <v>0.5227109999999999</v>
+        <v>0.771691</v>
       </c>
       <c r="I6">
-        <v>0.4038243142393166</v>
+        <v>0.5480491367965632</v>
       </c>
       <c r="J6">
-        <v>0.4038243142393167</v>
+        <v>0.5480491367965632</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>2.444111</v>
       </c>
       <c r="O6">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="P6">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="Q6">
-        <v>0.141951522769</v>
+        <v>0.2095664957445555</v>
       </c>
       <c r="R6">
-        <v>1.277563704921</v>
+        <v>1.886098461701</v>
       </c>
       <c r="S6">
-        <v>0.100411676025764</v>
+        <v>0.1267650240802753</v>
       </c>
       <c r="T6">
-        <v>0.1004116760257641</v>
+        <v>0.1267650240802754</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.174237</v>
+        <v>0.2572303333333333</v>
       </c>
       <c r="H7">
-        <v>0.5227109999999999</v>
+        <v>0.771691</v>
       </c>
       <c r="I7">
-        <v>0.4038243142393166</v>
+        <v>0.5480491367965632</v>
       </c>
       <c r="J7">
-        <v>0.4038243142393167</v>
+        <v>0.5480491367965632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.586789</v>
+        <v>2.656449666666667</v>
       </c>
       <c r="N7">
-        <v>4.760367</v>
+        <v>7.969348999999999</v>
       </c>
       <c r="O7">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812916</v>
       </c>
       <c r="P7">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812917</v>
       </c>
       <c r="Q7">
-        <v>0.276477354993</v>
+        <v>0.6833194332398889</v>
       </c>
       <c r="R7">
-        <v>2.488296194937</v>
+        <v>6.149874899158999</v>
       </c>
       <c r="S7">
-        <v>0.1955706712860988</v>
+        <v>0.4133342216818788</v>
       </c>
       <c r="T7">
-        <v>0.1955706712860989</v>
+        <v>0.4133342216818788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.174237</v>
+      </c>
+      <c r="H8">
+        <v>0.522711</v>
+      </c>
+      <c r="I8">
+        <v>0.3712254157999359</v>
+      </c>
+      <c r="J8">
+        <v>0.371225415799936</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.051093</v>
+      </c>
+      <c r="N8">
+        <v>0.153279</v>
+      </c>
+      <c r="O8">
+        <v>0.01450579975525089</v>
+      </c>
+      <c r="P8">
+        <v>0.01450579975525089</v>
+      </c>
+      <c r="Q8">
+        <v>0.008902291041</v>
+      </c>
+      <c r="R8">
+        <v>0.080120619369</v>
+      </c>
+      <c r="S8">
+        <v>0.005384921545653619</v>
+      </c>
+      <c r="T8">
+        <v>0.00538492154565362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.174237</v>
+      </c>
+      <c r="H9">
+        <v>0.522711</v>
+      </c>
+      <c r="I9">
+        <v>0.3712254157999359</v>
+      </c>
+      <c r="J9">
+        <v>0.371225415799936</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8147036666666666</v>
+      </c>
+      <c r="N9">
+        <v>2.444111</v>
+      </c>
+      <c r="O9">
+        <v>0.2313022967634575</v>
+      </c>
+      <c r="P9">
+        <v>0.2313022967634575</v>
+      </c>
+      <c r="Q9">
+        <v>0.141951522769</v>
+      </c>
+      <c r="R9">
+        <v>1.277563704921</v>
+      </c>
+      <c r="S9">
+        <v>0.08586529129149466</v>
+      </c>
+      <c r="T9">
+        <v>0.0858652912914947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.174237</v>
+      </c>
+      <c r="H10">
+        <v>0.522711</v>
+      </c>
+      <c r="I10">
+        <v>0.3712254157999359</v>
+      </c>
+      <c r="J10">
+        <v>0.371225415799936</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.656449666666667</v>
+      </c>
+      <c r="N10">
+        <v>7.969348999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.7541919034812916</v>
+      </c>
+      <c r="P10">
+        <v>0.7541919034812917</v>
+      </c>
+      <c r="Q10">
+        <v>0.462851820571</v>
+      </c>
+      <c r="R10">
+        <v>4.165666385139</v>
+      </c>
+      <c r="S10">
+        <v>0.2799752029627876</v>
+      </c>
+      <c r="T10">
+        <v>0.2799752029627877</v>
       </c>
     </row>
   </sheetData>
